--- a/data/study 6-accessible-feud.xlsx
+++ b/data/study 6-accessible-feud.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demay\Desktop\Psych251\problem_sets\CARPS_5-4-2015_PS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="24240" windowHeight="12465"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="24240" windowHeight="12470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cric" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="raw" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -145,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,12 +197,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Anuj K. Shah" refreshedDate="41194.460384837963" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="75">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anuj K. Shah" refreshedDate="41194.460384837963" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="75" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="cric"/>
   </cacheSource>
@@ -843,7 +851,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:N9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -909,6 +917,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -956,7 +967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,9 +1000,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,6 +1052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1199,23 +1244,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1264,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1290,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1322,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1363,7 +1408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>26</v>
       </c>
@@ -1402,7 +1447,7 @@
         <v>8.625</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>34</v>
       </c>
@@ -1441,7 +1486,7 @@
         <v>7.3529411764705879</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>38</v>
       </c>
@@ -1474,7 +1519,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>42</v>
       </c>
@@ -1513,7 +1558,7 @@
         <v>8.0405405405405403</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>46</v>
       </c>
@@ -1539,7 +1584,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1565,7 +1610,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>54</v>
       </c>
@@ -1591,7 +1636,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>58</v>
       </c>
@@ -1617,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>62</v>
       </c>
@@ -1643,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>66</v>
       </c>
@@ -1669,7 +1714,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>74</v>
       </c>
@@ -1695,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>78</v>
       </c>
@@ -1721,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>82</v>
       </c>
@@ -1747,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>86</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>102</v>
       </c>
@@ -1799,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>106</v>
       </c>
@@ -1825,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>110</v>
       </c>
@@ -1851,7 +1896,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1877,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -1903,7 +1948,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1929,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1955,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1981,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>32</v>
       </c>
@@ -2007,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>40</v>
       </c>
@@ -2033,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>44</v>
       </c>
@@ -2059,7 +2104,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>48</v>
       </c>
@@ -2085,7 +2130,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>60</v>
       </c>
@@ -2111,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>64</v>
       </c>
@@ -2137,7 +2182,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>68</v>
       </c>
@@ -2163,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>72</v>
       </c>
@@ -2189,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>80</v>
       </c>
@@ -2215,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>84</v>
       </c>
@@ -2241,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>89</v>
       </c>
@@ -2267,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>92</v>
       </c>
@@ -2293,7 +2338,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>100</v>
       </c>
@@ -2319,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>108</v>
       </c>
@@ -2345,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2371,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>11</v>
       </c>
@@ -2397,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>19</v>
       </c>
@@ -2423,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>35</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>39</v>
       </c>
@@ -2475,7 +2520,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2501,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2527,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>55</v>
       </c>
@@ -2553,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>59</v>
       </c>
@@ -2579,7 +2624,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>63</v>
       </c>
@@ -2605,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>71</v>
       </c>
@@ -2631,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>79</v>
       </c>
@@ -2657,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>87</v>
       </c>
@@ -2683,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>99</v>
       </c>
@@ -2709,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>103</v>
       </c>
@@ -2735,7 +2780,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2761,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2787,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2813,7 +2858,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>13</v>
       </c>
@@ -2839,7 +2884,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>17</v>
       </c>
@@ -2865,7 +2910,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>29</v>
       </c>
@@ -2891,7 +2936,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>33</v>
       </c>
@@ -2917,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>37</v>
       </c>
@@ -2943,7 +2988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>45</v>
       </c>
@@ -2969,7 +3014,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>49</v>
       </c>
@@ -2977,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="6">MOD(B66,2)</f>
+        <f t="shared" ref="C66:C75" si="6">MOD(B66,2)</f>
         <v>1</v>
       </c>
       <c r="D66">
@@ -2995,7 +3040,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>61</v>
       </c>
@@ -3021,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>65</v>
       </c>
@@ -3047,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>73</v>
       </c>
@@ -3073,7 +3118,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>77</v>
       </c>
@@ -3099,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>88</v>
       </c>
@@ -3125,7 +3170,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>93</v>
       </c>
@@ -3151,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>97</v>
       </c>
@@ -3177,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>105</v>
       </c>
@@ -3203,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>109</v>
       </c>
@@ -3239,19 +3284,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3279,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3293,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3307,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -3321,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -3335,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3349,7 +3394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
@@ -3363,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3377,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>16</v>
       </c>
@@ -3391,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>17</v>
       </c>
@@ -3405,7 +3450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>18</v>
       </c>
@@ -3419,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>19</v>
       </c>
@@ -3433,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -3447,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
@@ -3461,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>24</v>
       </c>
@@ -3475,7 +3520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>26</v>
       </c>
@@ -3489,7 +3534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>28</v>
       </c>
@@ -3503,7 +3548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>29</v>
       </c>
@@ -3517,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>32</v>
       </c>
@@ -3531,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>33</v>
       </c>
@@ -3545,7 +3590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>34</v>
       </c>
@@ -3559,7 +3604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>35</v>
       </c>
@@ -3573,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>37</v>
       </c>
@@ -3587,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>38</v>
       </c>
@@ -3601,7 +3646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>39</v>
       </c>
@@ -3615,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>40</v>
       </c>
@@ -3629,7 +3674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>42</v>
       </c>
@@ -3643,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>43</v>
       </c>
@@ -3657,7 +3702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>44</v>
       </c>
@@ -3671,7 +3716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>45</v>
       </c>
@@ -3685,7 +3730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>46</v>
       </c>
@@ -3699,7 +3744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>47</v>
       </c>
@@ -3713,7 +3758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>48</v>
       </c>
@@ -3727,7 +3772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>49</v>
       </c>
@@ -3741,7 +3786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>50</v>
       </c>
@@ -3755,7 +3800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>54</v>
       </c>
@@ -3769,7 +3814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>55</v>
       </c>
@@ -3783,7 +3828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>58</v>
       </c>
@@ -3797,7 +3842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>59</v>
       </c>
@@ -3811,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>60</v>
       </c>
@@ -3825,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>61</v>
       </c>
@@ -3839,7 +3884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>62</v>
       </c>
@@ -3853,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>63</v>
       </c>
@@ -3867,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>64</v>
       </c>
@@ -3881,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>65</v>
       </c>
@@ -3895,7 +3940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>66</v>
       </c>
@@ -3909,7 +3954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>68</v>
       </c>
@@ -3923,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>71</v>
       </c>
@@ -3937,7 +3982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>72</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>73</v>
       </c>
@@ -3965,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>74</v>
       </c>
@@ -3979,7 +4024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>77</v>
       </c>
@@ -3993,7 +4038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>78</v>
       </c>
@@ -4007,7 +4052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>79</v>
       </c>
@@ -4021,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>80</v>
       </c>
@@ -4035,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>82</v>
       </c>
@@ -4049,7 +4094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>84</v>
       </c>
@@ -4063,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>86</v>
       </c>
@@ -4077,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>87</v>
       </c>
@@ -4091,7 +4136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>88</v>
       </c>
@@ -4105,7 +4150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>89</v>
       </c>
@@ -4119,7 +4164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>92</v>
       </c>
@@ -4133,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>93</v>
       </c>
@@ -4147,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>97</v>
       </c>
@@ -4161,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>99</v>
       </c>
@@ -4175,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>100</v>
       </c>
@@ -4189,7 +4234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>102</v>
       </c>
@@ -4203,7 +4248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>103</v>
       </c>
@@ -4217,7 +4262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>105</v>
       </c>
@@ -4231,7 +4276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>106</v>
       </c>
@@ -4245,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>107</v>
       </c>
@@ -4256,7 +4301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>108</v>
       </c>
@@ -4270,7 +4315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>109</v>
       </c>
@@ -4284,7 +4329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>110</v>
       </c>
@@ -4298,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76">
         <f>AVERAGE(B2:B75)</f>
         <v>32.041095890410958</v>
@@ -4308,7 +4353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C77">
         <f>COUNTIF(C2:C75,"f")</f>
         <v>46</v>
@@ -4324,16 +4369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4365,7 +4410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4399,7 +4444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4433,7 +4478,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4467,7 +4512,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4501,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4535,7 +4580,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4569,7 +4614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4603,7 +4648,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4637,7 +4682,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4671,7 +4716,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4705,7 +4750,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4739,7 +4784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4773,7 +4818,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4807,7 +4852,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4841,7 +4886,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4875,7 +4920,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -4909,7 +4954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4943,7 +4988,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4977,7 +5022,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5011,7 +5056,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8</v>
       </c>
@@ -5045,7 +5090,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>9</v>
       </c>
@@ -5079,7 +5124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9</v>
       </c>
@@ -5113,7 +5158,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>9</v>
       </c>
@@ -5147,7 +5192,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9</v>
       </c>
@@ -5181,7 +5226,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>9</v>
       </c>
@@ -5215,7 +5260,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10</v>
       </c>
@@ -5249,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>10</v>
       </c>
@@ -5283,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10</v>
       </c>
@@ -5317,7 +5362,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>11</v>
       </c>
@@ -5351,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>11</v>
       </c>
@@ -5385,7 +5430,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
@@ -5419,7 +5464,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>11</v>
       </c>
@@ -5453,7 +5498,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>11</v>
       </c>
@@ -5487,7 +5532,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>13</v>
       </c>
@@ -5521,7 +5566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>13</v>
       </c>
@@ -5555,7 +5600,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>13</v>
       </c>
@@ -5589,7 +5634,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>13</v>
       </c>
@@ -5623,7 +5668,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>13</v>
       </c>
@@ -5657,7 +5702,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -5688,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>17</v>
       </c>
@@ -5722,7 +5767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>17</v>
       </c>
@@ -5756,7 +5801,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>17</v>
       </c>
@@ -5790,7 +5835,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>17</v>
       </c>
@@ -5824,7 +5869,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>17</v>
       </c>
@@ -5858,7 +5903,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>18</v>
       </c>
@@ -5892,7 +5937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>18</v>
       </c>
@@ -5926,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>18</v>
       </c>
@@ -5960,7 +6005,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>18</v>
       </c>
@@ -5994,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>19</v>
       </c>
@@ -6028,7 +6073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>19</v>
       </c>
@@ -6062,7 +6107,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>19</v>
       </c>
@@ -6096,7 +6141,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>19</v>
       </c>
@@ -6130,7 +6175,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>19</v>
       </c>
@@ -6164,7 +6209,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>20</v>
       </c>
@@ -6198,7 +6243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>20</v>
       </c>
@@ -6232,7 +6277,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>20</v>
       </c>
@@ -6266,7 +6311,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>20</v>
       </c>
@@ -6300,7 +6345,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>20</v>
       </c>
@@ -6334,7 +6379,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>22</v>
       </c>
@@ -6368,7 +6413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>22</v>
       </c>
@@ -6402,7 +6447,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>22</v>
       </c>
@@ -6436,7 +6481,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>22</v>
       </c>
@@ -6470,7 +6515,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>22</v>
       </c>
@@ -6504,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>22</v>
       </c>
@@ -6538,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>24</v>
       </c>
@@ -6572,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>24</v>
       </c>
@@ -6606,7 +6651,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>26</v>
       </c>
@@ -6640,7 +6685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>26</v>
       </c>
@@ -6674,7 +6719,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>26</v>
       </c>
@@ -6708,7 +6753,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>26</v>
       </c>
@@ -6742,7 +6787,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>28</v>
       </c>
@@ -6776,7 +6821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>29</v>
       </c>
@@ -6810,7 +6855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>29</v>
       </c>
@@ -6844,7 +6889,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>29</v>
       </c>
@@ -6878,7 +6923,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>29</v>
       </c>
@@ -6912,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>29</v>
       </c>
@@ -6946,7 +6991,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>32</v>
       </c>
@@ -6980,7 +7025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>32</v>
       </c>
@@ -7014,7 +7059,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>32</v>
       </c>
@@ -7048,7 +7093,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>33</v>
       </c>
@@ -7082,7 +7127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>33</v>
       </c>
@@ -7116,7 +7161,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>33</v>
       </c>
@@ -7150,7 +7195,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>33</v>
       </c>
@@ -7184,7 +7229,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>33</v>
       </c>
@@ -7218,7 +7263,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>34</v>
       </c>
@@ -7249,7 +7294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>34</v>
       </c>
@@ -7283,7 +7328,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>34</v>
       </c>
@@ -7317,7 +7362,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>35</v>
       </c>
@@ -7351,7 +7396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>35</v>
       </c>
@@ -7385,7 +7430,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>35</v>
       </c>
@@ -7419,7 +7464,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>35</v>
       </c>
@@ -7453,7 +7498,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>35</v>
       </c>
@@ -7487,7 +7532,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>37</v>
       </c>
@@ -7521,7 +7566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>37</v>
       </c>
@@ -7555,7 +7600,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>37</v>
       </c>
@@ -7589,7 +7634,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>37</v>
       </c>
@@ -7623,7 +7668,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>37</v>
       </c>
@@ -7657,7 +7702,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>38</v>
       </c>
@@ -7691,7 +7736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>38</v>
       </c>
@@ -7725,7 +7770,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>38</v>
       </c>
@@ -7759,7 +7804,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>39</v>
       </c>
@@ -7793,7 +7838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>39</v>
       </c>
@@ -7827,7 +7872,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>39</v>
       </c>
@@ -7861,7 +7906,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>39</v>
       </c>
@@ -7895,7 +7940,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>39</v>
       </c>
@@ -7929,7 +7974,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>40</v>
       </c>
@@ -7963,7 +8008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>40</v>
       </c>
@@ -7997,7 +8042,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>42</v>
       </c>
@@ -8031,7 +8076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>42</v>
       </c>
@@ -8065,7 +8110,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>43</v>
       </c>
@@ -8099,7 +8144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>43</v>
       </c>
@@ -8133,7 +8178,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>43</v>
       </c>
@@ -8167,7 +8212,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>43</v>
       </c>
@@ -8201,7 +8246,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>43</v>
       </c>
@@ -8235,7 +8280,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>44</v>
       </c>
@@ -8269,7 +8314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>44</v>
       </c>
@@ -8303,7 +8348,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>44</v>
       </c>
@@ -8337,7 +8382,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>44</v>
       </c>
@@ -8371,7 +8416,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>45</v>
       </c>
@@ -8405,7 +8450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>45</v>
       </c>
@@ -8439,7 +8484,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>45</v>
       </c>
@@ -8473,7 +8518,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>45</v>
       </c>
@@ -8507,7 +8552,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>45</v>
       </c>
@@ -8541,7 +8586,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>46</v>
       </c>
@@ -8575,7 +8620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>46</v>
       </c>
@@ -8609,7 +8654,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>46</v>
       </c>
@@ -8643,7 +8688,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>47</v>
       </c>
@@ -8677,7 +8722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>47</v>
       </c>
@@ -8711,7 +8756,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>47</v>
       </c>
@@ -8745,7 +8790,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>47</v>
       </c>
@@ -8779,7 +8824,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>47</v>
       </c>
@@ -8813,7 +8858,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>48</v>
       </c>
@@ -8847,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>48</v>
       </c>
@@ -8881,7 +8926,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>49</v>
       </c>
@@ -8915,7 +8960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>49</v>
       </c>
@@ -8949,7 +8994,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>49</v>
       </c>
@@ -8983,7 +9028,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>49</v>
       </c>
@@ -9017,7 +9062,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>49</v>
       </c>
@@ -9051,7 +9096,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>50</v>
       </c>
@@ -9085,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>54</v>
       </c>
@@ -9119,7 +9164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>54</v>
       </c>
@@ -9153,7 +9198,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>55</v>
       </c>
@@ -9187,7 +9232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>55</v>
       </c>
@@ -9221,7 +9266,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>55</v>
       </c>
@@ -9255,7 +9300,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>55</v>
       </c>
@@ -9289,7 +9334,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>55</v>
       </c>
@@ -9323,7 +9368,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>58</v>
       </c>
@@ -9357,7 +9402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>59</v>
       </c>
@@ -9391,7 +9436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>60</v>
       </c>
@@ -9425,7 +9470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>60</v>
       </c>
@@ -9459,7 +9504,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>60</v>
       </c>
@@ -9493,7 +9538,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>60</v>
       </c>
@@ -9527,7 +9572,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>60</v>
       </c>
@@ -9561,7 +9606,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>61</v>
       </c>
@@ -9595,7 +9640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>61</v>
       </c>
@@ -9629,7 +9674,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>61</v>
       </c>
@@ -9663,7 +9708,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>61</v>
       </c>
@@ -9697,7 +9742,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>61</v>
       </c>
@@ -9731,7 +9776,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>62</v>
       </c>
@@ -9765,7 +9810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>62</v>
       </c>
@@ -9799,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>62</v>
       </c>
@@ -9833,7 +9878,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>62</v>
       </c>
@@ -9867,7 +9912,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>62</v>
       </c>
@@ -9901,7 +9946,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>63</v>
       </c>
@@ -9935,7 +9980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>63</v>
       </c>
@@ -9969,7 +10014,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>63</v>
       </c>
@@ -10003,7 +10048,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>63</v>
       </c>
@@ -10037,7 +10082,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>63</v>
       </c>
@@ -10071,7 +10116,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>64</v>
       </c>
@@ -10105,7 +10150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>64</v>
       </c>
@@ -10139,7 +10184,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>64</v>
       </c>
@@ -10173,7 +10218,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>65</v>
       </c>
@@ -10207,7 +10252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>65</v>
       </c>
@@ -10241,7 +10286,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>65</v>
       </c>
@@ -10275,7 +10320,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>65</v>
       </c>
@@ -10309,7 +10354,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>65</v>
       </c>
@@ -10343,7 +10388,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>66</v>
       </c>
@@ -10374,7 +10419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>66</v>
       </c>
@@ -10408,7 +10453,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>66</v>
       </c>
@@ -10442,7 +10487,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>66</v>
       </c>
@@ -10476,7 +10521,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>66</v>
       </c>
@@ -10510,7 +10555,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>68</v>
       </c>
@@ -10544,7 +10589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>68</v>
       </c>
@@ -10578,7 +10623,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>71</v>
       </c>
@@ -10612,7 +10657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>71</v>
       </c>
@@ -10646,7 +10691,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>71</v>
       </c>
@@ -10680,7 +10725,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>71</v>
       </c>
@@ -10714,7 +10759,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>71</v>
       </c>
@@ -10748,7 +10793,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>72</v>
       </c>
@@ -10782,7 +10827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>72</v>
       </c>
@@ -10816,7 +10861,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>72</v>
       </c>
@@ -10850,7 +10895,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>72</v>
       </c>
@@ -10884,7 +10929,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>73</v>
       </c>
@@ -10918,7 +10963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>73</v>
       </c>
@@ -10952,7 +10997,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>73</v>
       </c>
@@ -10986,7 +11031,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>73</v>
       </c>
@@ -11020,7 +11065,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>73</v>
       </c>
@@ -11054,7 +11099,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>74</v>
       </c>
@@ -11085,7 +11130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>74</v>
       </c>
@@ -11119,7 +11164,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>74</v>
       </c>
@@ -11153,7 +11198,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>74</v>
       </c>
@@ -11187,7 +11232,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>77</v>
       </c>
@@ -11221,7 +11266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>77</v>
       </c>
@@ -11255,7 +11300,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>77</v>
       </c>
@@ -11289,7 +11334,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>77</v>
       </c>
@@ -11323,7 +11368,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>77</v>
       </c>
@@ -11357,7 +11402,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>78</v>
       </c>
@@ -11391,7 +11436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>78</v>
       </c>
@@ -11425,7 +11470,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>78</v>
       </c>
@@ -11459,7 +11504,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>79</v>
       </c>
@@ -11493,7 +11538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>79</v>
       </c>
@@ -11527,7 +11572,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>79</v>
       </c>
@@ -11561,7 +11606,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>79</v>
       </c>
@@ -11595,7 +11640,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>79</v>
       </c>
@@ -11629,7 +11674,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>80</v>
       </c>
@@ -11663,7 +11708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>80</v>
       </c>
@@ -11697,7 +11742,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>80</v>
       </c>
@@ -11731,7 +11776,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>80</v>
       </c>
@@ -11765,7 +11810,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>82</v>
       </c>
@@ -11799,7 +11844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>82</v>
       </c>
@@ -11833,7 +11878,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>82</v>
       </c>
@@ -11867,7 +11912,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>82</v>
       </c>
@@ -11901,7 +11946,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>82</v>
       </c>
@@ -11935,7 +11980,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>84</v>
       </c>
@@ -11969,7 +12014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>84</v>
       </c>
@@ -12003,7 +12048,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>84</v>
       </c>
@@ -12037,7 +12082,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>84</v>
       </c>
@@ -12071,7 +12116,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>86</v>
       </c>
@@ -12105,7 +12150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>86</v>
       </c>
@@ -12139,7 +12184,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>86</v>
       </c>
@@ -12173,7 +12218,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>86</v>
       </c>
@@ -12207,7 +12252,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>87</v>
       </c>
@@ -12241,7 +12286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>87</v>
       </c>
@@ -12275,7 +12320,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>87</v>
       </c>
@@ -12309,7 +12354,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>87</v>
       </c>
@@ -12343,7 +12388,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>87</v>
       </c>
@@ -12377,7 +12422,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>88</v>
       </c>
@@ -12411,7 +12456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>88</v>
       </c>
@@ -12445,7 +12490,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>88</v>
       </c>
@@ -12479,7 +12524,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>88</v>
       </c>
@@ -12513,7 +12558,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>88</v>
       </c>
@@ -12547,7 +12592,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>89</v>
       </c>
@@ -12581,7 +12626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>89</v>
       </c>
@@ -12615,7 +12660,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>89</v>
       </c>
@@ -12649,7 +12694,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>89</v>
       </c>
@@ -12683,7 +12728,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>89</v>
       </c>
@@ -12717,7 +12762,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>92</v>
       </c>
@@ -12751,7 +12796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>92</v>
       </c>
@@ -12785,7 +12830,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>93</v>
       </c>
@@ -12819,7 +12864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>93</v>
       </c>
@@ -12853,7 +12898,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>93</v>
       </c>
@@ -12887,7 +12932,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>93</v>
       </c>
@@ -12921,7 +12966,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>93</v>
       </c>
@@ -12955,7 +13000,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>97</v>
       </c>
@@ -12989,7 +13034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>97</v>
       </c>
@@ -13023,7 +13068,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>97</v>
       </c>
@@ -13057,7 +13102,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>97</v>
       </c>
@@ -13091,7 +13136,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>97</v>
       </c>
@@ -13125,7 +13170,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>99</v>
       </c>
@@ -13159,7 +13204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>99</v>
       </c>
@@ -13193,7 +13238,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>99</v>
       </c>
@@ -13227,7 +13272,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>99</v>
       </c>
@@ -13261,7 +13306,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>99</v>
       </c>
@@ -13295,7 +13340,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>100</v>
       </c>
@@ -13329,7 +13374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>100</v>
       </c>
@@ -13363,7 +13408,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>100</v>
       </c>
@@ -13397,7 +13442,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>102</v>
       </c>
@@ -13431,7 +13476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>102</v>
       </c>
@@ -13465,7 +13510,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>103</v>
       </c>
@@ -13499,7 +13544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>103</v>
       </c>
@@ -13533,7 +13578,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>103</v>
       </c>
@@ -13567,7 +13612,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>103</v>
       </c>
@@ -13601,7 +13646,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>103</v>
       </c>
@@ -13635,7 +13680,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>105</v>
       </c>
@@ -13669,7 +13714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>105</v>
       </c>
@@ -13703,7 +13748,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>105</v>
       </c>
@@ -13737,7 +13782,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>105</v>
       </c>
@@ -13771,7 +13816,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>105</v>
       </c>
@@ -13805,7 +13850,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>106</v>
       </c>
@@ -13839,7 +13884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>106</v>
       </c>
@@ -13873,7 +13918,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>106</v>
       </c>
@@ -13907,7 +13952,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>107</v>
       </c>
@@ -13941,7 +13986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>107</v>
       </c>
@@ -13975,7 +14020,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>107</v>
       </c>
@@ -14009,7 +14054,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>107</v>
       </c>
@@ -14043,7 +14088,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>107</v>
       </c>
@@ -14077,7 +14122,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>108</v>
       </c>
@@ -14111,7 +14156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>108</v>
       </c>
@@ -14145,7 +14190,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>108</v>
       </c>
@@ -14179,7 +14224,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>108</v>
       </c>
@@ -14213,7 +14258,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>109</v>
       </c>
@@ -14247,7 +14292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>109</v>
       </c>
@@ -14281,7 +14326,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>109</v>
       </c>
@@ -14315,7 +14360,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>109</v>
       </c>
@@ -14349,7 +14394,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>110</v>
       </c>
@@ -14383,7 +14428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>110</v>
       </c>
@@ -14417,7 +14462,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>110</v>
       </c>
@@ -14451,7 +14496,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K300" t="str">
         <f t="shared" ref="K300:K322" si="10">IF(A300&lt;&gt;A299,SUMIF($A$2:$A$1973,$A300,E$2:E$1973),"")</f>
         <v/>
@@ -14461,7 +14506,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K301" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14471,7 +14516,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K302" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14481,7 +14526,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K303" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14491,7 +14536,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K304" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14501,7 +14546,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K305" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14511,7 +14556,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K306" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14521,7 +14566,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K307" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14531,7 +14576,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K308" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14541,7 +14586,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K309" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14551,7 +14596,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K310" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14561,7 +14606,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K311" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14571,7 +14616,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K312" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14581,7 +14626,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K313" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14591,7 +14636,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K314" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14601,7 +14646,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K315" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14611,7 +14656,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K316" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14621,7 +14666,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K317" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14631,7 +14676,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K318" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14641,7 +14686,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K319" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14651,7 +14696,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K320" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14661,7 +14706,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K321" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14671,7 +14716,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K322" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -14690,16 +14735,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -14713,7 +14758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>16</v>
       </c>
@@ -14727,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24</v>
       </c>
@@ -14741,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>48</v>
       </c>
@@ -14755,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -14769,7 +14814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>42</v>
       </c>
@@ -14783,7 +14828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>64</v>
       </c>
@@ -14797,7 +14842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
@@ -14811,7 +14856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>28</v>
       </c>
@@ -14825,7 +14870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>32</v>
       </c>
@@ -14839,7 +14884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>54</v>
       </c>
@@ -14853,7 +14898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>58</v>
       </c>
@@ -14867,7 +14912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>62</v>
       </c>
@@ -14881,7 +14926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>74</v>
       </c>
@@ -14895,7 +14940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100</v>
       </c>
@@ -14909,7 +14954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>34</v>
       </c>
@@ -14923,7 +14968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>40</v>
       </c>
@@ -14937,7 +14982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>59</v>
       </c>
@@ -14951,7 +14996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>66</v>
       </c>
@@ -14965,7 +15010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>68</v>
       </c>
@@ -14979,7 +15024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>102</v>
       </c>
@@ -14993,7 +15038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>106</v>
       </c>
@@ -15007,7 +15052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>38</v>
       </c>
@@ -15021,7 +15066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>46</v>
       </c>
@@ -15035,7 +15080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>80</v>
       </c>
@@ -15049,7 +15094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>84</v>
       </c>
@@ -15063,7 +15108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>92</v>
       </c>
@@ -15077,7 +15122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -15091,7 +15136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>18</v>
       </c>
@@ -15105,7 +15150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>26</v>
       </c>
@@ -15119,7 +15164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>78</v>
       </c>
@@ -15133,7 +15178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>110</v>
       </c>
@@ -15147,7 +15192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>44</v>
       </c>
@@ -15161,7 +15206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>86</v>
       </c>
@@ -15175,7 +15220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
@@ -15189,7 +15234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>89</v>
       </c>
@@ -15203,7 +15248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>108</v>
       </c>
@@ -15217,7 +15262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6</v>
       </c>
@@ -15231,7 +15276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>22</v>
       </c>
@@ -15245,7 +15290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>65</v>
       </c>
@@ -15259,7 +15304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>72</v>
       </c>
@@ -15273,7 +15318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>105</v>
       </c>
@@ -15287,7 +15332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>109</v>
       </c>
@@ -15301,7 +15346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>17</v>
       </c>
@@ -15315,7 +15360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>19</v>
       </c>
@@ -15329,7 +15374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>60</v>
       </c>
@@ -15343,7 +15388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>77</v>
       </c>
@@ -15357,7 +15402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>82</v>
       </c>
@@ -15371,7 +15416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>88</v>
       </c>
@@ -15385,7 +15430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>103</v>
       </c>
@@ -15399,7 +15444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>20</v>
       </c>
@@ -15413,7 +15458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>13</v>
       </c>
@@ -15427,7 +15472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>43</v>
       </c>
@@ -15441,7 +15486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>45</v>
       </c>
@@ -15455,7 +15500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>49</v>
       </c>
@@ -15469,7 +15514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>71</v>
       </c>
@@ -15483,7 +15528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>73</v>
       </c>
@@ -15497,7 +15542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>87</v>
       </c>
@@ -15511,7 +15556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>97</v>
       </c>
@@ -15525,7 +15570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>99</v>
       </c>
@@ -15539,7 +15584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>29</v>
       </c>
@@ -15553,7 +15598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>33</v>
       </c>
@@ -15567,7 +15612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>47</v>
       </c>
@@ -15581,7 +15626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>93</v>
       </c>
@@ -15595,7 +15640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5</v>
       </c>
@@ -15609,7 +15654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>9</v>
       </c>
@@ -15623,7 +15668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>37</v>
       </c>
@@ -15637,7 +15682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>61</v>
       </c>
@@ -15651,7 +15696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>63</v>
       </c>
@@ -15665,7 +15710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>79</v>
       </c>
@@ -15679,7 +15724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>39</v>
       </c>
@@ -15693,7 +15738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>107</v>
       </c>
@@ -15707,7 +15752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>11</v>
       </c>
@@ -15721,7 +15766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>35</v>
       </c>
@@ -15735,7 +15780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>55</v>
       </c>
